--- a/SPPSApi/Doc/Template/FS0618_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0618_Export.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="53">
   <si>
     <t>包装工厂</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
   </si>
   <si>
     <t>内外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -270,10 +266,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DJ2"/>
+  <dimension ref="A1:DI2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -593,251 +589,248 @@
     <col min="8" max="8" width="11.90625" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.6328125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7265625" style="1"/>
-    <col min="12" max="12" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="105" width="8.7265625" style="1"/>
-    <col min="106" max="108" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="8.7265625" style="1"/>
-    <col min="110" max="110" width="19.26953125" style="1" customWidth="1"/>
-    <col min="111" max="111" width="11.6328125" style="1" customWidth="1"/>
-    <col min="112" max="112" width="11.26953125" style="1" customWidth="1"/>
-    <col min="113" max="113" width="18.26953125" style="1" customWidth="1"/>
-    <col min="114" max="114" width="15.08984375" style="1" customWidth="1"/>
+    <col min="11" max="104" width="8.7265625" style="1"/>
+    <col min="105" max="107" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="8.7265625" style="1"/>
+    <col min="109" max="109" width="19.26953125" style="1" customWidth="1"/>
+    <col min="110" max="110" width="11.6328125" style="1" customWidth="1"/>
+    <col min="111" max="111" width="11.26953125" style="1" customWidth="1"/>
+    <col min="112" max="112" width="18.26953125" style="1" customWidth="1"/>
+    <col min="113" max="113" width="15.08984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4" t="s">
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4" t="s">
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4" t="s">
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AR1" s="4"/>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4" t="s">
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AU1" s="4"/>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4" t="s">
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AX1" s="4"/>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="4" t="s">
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="4"/>
-      <c r="BC1" s="4" t="s">
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="BD1" s="4"/>
-      <c r="BE1" s="4"/>
-      <c r="BF1" s="4" t="s">
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="BG1" s="4"/>
-      <c r="BH1" s="4"/>
-      <c r="BI1" s="4" t="s">
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="BJ1" s="4"/>
-      <c r="BK1" s="4"/>
-      <c r="BL1" s="4" t="s">
+      <c r="BL1" s="3"/>
+      <c r="BM1" s="3"/>
+      <c r="BN1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="BM1" s="4"/>
-      <c r="BN1" s="4"/>
-      <c r="BO1" s="4" t="s">
+      <c r="BO1" s="3"/>
+      <c r="BP1" s="3"/>
+      <c r="BQ1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="BP1" s="4"/>
-      <c r="BQ1" s="4"/>
-      <c r="BR1" s="4" t="s">
+      <c r="BR1" s="3"/>
+      <c r="BS1" s="3"/>
+      <c r="BT1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="BS1" s="4"/>
-      <c r="BT1" s="4"/>
-      <c r="BU1" s="4" t="s">
+      <c r="BU1" s="3"/>
+      <c r="BV1" s="3"/>
+      <c r="BW1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="BV1" s="4"/>
-      <c r="BW1" s="4"/>
-      <c r="BX1" s="4" t="s">
+      <c r="BX1" s="3"/>
+      <c r="BY1" s="3"/>
+      <c r="BZ1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="BY1" s="4"/>
-      <c r="BZ1" s="4"/>
-      <c r="CA1" s="4" t="s">
+      <c r="CA1" s="3"/>
+      <c r="CB1" s="3"/>
+      <c r="CC1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="CB1" s="4"/>
-      <c r="CC1" s="4"/>
-      <c r="CD1" s="4" t="s">
+      <c r="CD1" s="3"/>
+      <c r="CE1" s="3"/>
+      <c r="CF1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="CE1" s="4"/>
-      <c r="CF1" s="4"/>
-      <c r="CG1" s="4" t="s">
+      <c r="CG1" s="3"/>
+      <c r="CH1" s="3"/>
+      <c r="CI1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="CH1" s="4"/>
-      <c r="CI1" s="4"/>
-      <c r="CJ1" s="4" t="s">
+      <c r="CJ1" s="3"/>
+      <c r="CK1" s="3"/>
+      <c r="CL1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="CK1" s="4"/>
-      <c r="CL1" s="4"/>
-      <c r="CM1" s="4" t="s">
+      <c r="CM1" s="3"/>
+      <c r="CN1" s="3"/>
+      <c r="CO1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="CN1" s="4"/>
-      <c r="CO1" s="4"/>
-      <c r="CP1" s="4" t="s">
+      <c r="CP1" s="3"/>
+      <c r="CQ1" s="3"/>
+      <c r="CR1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="CQ1" s="4"/>
-      <c r="CR1" s="4"/>
-      <c r="CS1" s="4" t="s">
+      <c r="CS1" s="3"/>
+      <c r="CT1" s="3"/>
+      <c r="CU1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="CT1" s="4"/>
-      <c r="CU1" s="4"/>
-      <c r="CV1" s="4" t="s">
+      <c r="CV1" s="3"/>
+      <c r="CW1" s="3"/>
+      <c r="CX1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="CW1" s="4"/>
-      <c r="CX1" s="4"/>
-      <c r="CY1" s="4" t="s">
+      <c r="CY1" s="3"/>
+      <c r="CZ1" s="3"/>
+      <c r="DA1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="CZ1" s="4"/>
-      <c r="DA1" s="4"/>
-      <c r="DB1" s="3" t="s">
+      <c r="DB1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="DC1" s="3" t="s">
+      <c r="DC1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="DD1" s="3" t="s">
+      <c r="DD1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="DE1" s="3" t="s">
+      <c r="DE1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="DF1" s="3" t="s">
+      <c r="DF1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="DG1" s="3" t="s">
+      <c r="DG1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="DH1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="DI1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="DH1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="DI1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="DJ1" s="3" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="2" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+    <row r="2" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
@@ -845,7 +838,7 @@
         <v>14</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>13</v>
@@ -854,7 +847,7 @@
         <v>14</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>13</v>
@@ -863,7 +856,7 @@
         <v>14</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>13</v>
@@ -872,7 +865,7 @@
         <v>14</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>13</v>
@@ -881,7 +874,7 @@
         <v>14</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>13</v>
@@ -890,7 +883,7 @@
         <v>14</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>13</v>
@@ -899,7 +892,7 @@
         <v>14</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH2" s="2" t="s">
         <v>13</v>
@@ -908,7 +901,7 @@
         <v>14</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AK2" s="2" t="s">
         <v>13</v>
@@ -917,7 +910,7 @@
         <v>14</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AN2" s="2" t="s">
         <v>13</v>
@@ -926,7 +919,7 @@
         <v>14</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>13</v>
@@ -935,7 +928,7 @@
         <v>14</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>13</v>
@@ -944,7 +937,7 @@
         <v>14</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AW2" s="2" t="s">
         <v>13</v>
@@ -953,7 +946,7 @@
         <v>14</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ2" s="2" t="s">
         <v>13</v>
@@ -962,7 +955,7 @@
         <v>14</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BC2" s="2" t="s">
         <v>13</v>
@@ -971,7 +964,7 @@
         <v>14</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BF2" s="2" t="s">
         <v>13</v>
@@ -980,7 +973,7 @@
         <v>14</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BI2" s="2" t="s">
         <v>13</v>
@@ -989,7 +982,7 @@
         <v>14</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BL2" s="2" t="s">
         <v>13</v>
@@ -998,7 +991,7 @@
         <v>14</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BO2" s="2" t="s">
         <v>13</v>
@@ -1007,7 +1000,7 @@
         <v>14</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BR2" s="2" t="s">
         <v>13</v>
@@ -1016,7 +1009,7 @@
         <v>14</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BU2" s="2" t="s">
         <v>13</v>
@@ -1025,7 +1018,7 @@
         <v>14</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BX2" s="2" t="s">
         <v>13</v>
@@ -1034,7 +1027,7 @@
         <v>14</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="CA2" s="2" t="s">
         <v>13</v>
@@ -1043,7 +1036,7 @@
         <v>14</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="CD2" s="2" t="s">
         <v>13</v>
@@ -1052,7 +1045,7 @@
         <v>14</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="CG2" s="2" t="s">
         <v>13</v>
@@ -1061,7 +1054,7 @@
         <v>14</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="CJ2" s="2" t="s">
         <v>13</v>
@@ -1070,7 +1063,7 @@
         <v>14</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="CM2" s="2" t="s">
         <v>13</v>
@@ -1079,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="CP2" s="2" t="s">
         <v>13</v>
@@ -1088,7 +1081,7 @@
         <v>14</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="CS2" s="2" t="s">
         <v>13</v>
@@ -1097,7 +1090,7 @@
         <v>14</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="CV2" s="2" t="s">
         <v>13</v>
@@ -1106,7 +1099,7 @@
         <v>14</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="CY2" s="2" t="s">
         <v>13</v>
@@ -1114,73 +1107,69 @@
       <c r="CZ2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="DA2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="DB2" s="3"/>
-      <c r="DC2" s="3"/>
-      <c r="DD2" s="3"/>
-      <c r="DE2" s="3"/>
-      <c r="DF2" s="3"/>
-      <c r="DG2" s="3"/>
-      <c r="DH2" s="3"/>
-      <c r="DI2" s="3"/>
-      <c r="DJ2" s="3"/>
+      <c r="DA2" s="4"/>
+      <c r="DB2" s="4"/>
+      <c r="DC2" s="4"/>
+      <c r="DD2" s="4"/>
+      <c r="DE2" s="4"/>
+      <c r="DF2" s="4"/>
+      <c r="DG2" s="4"/>
+      <c r="DH2" s="4"/>
+      <c r="DI2" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="BL1:BN1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="AN1:AP1"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AT1:AV1"/>
-    <mergeCell ref="AW1:AY1"/>
-    <mergeCell ref="AZ1:BB1"/>
-    <mergeCell ref="BC1:BE1"/>
-    <mergeCell ref="BF1:BH1"/>
-    <mergeCell ref="BI1:BK1"/>
-    <mergeCell ref="CV1:CX1"/>
-    <mergeCell ref="BO1:BQ1"/>
-    <mergeCell ref="BR1:BT1"/>
-    <mergeCell ref="BU1:BW1"/>
-    <mergeCell ref="BX1:BZ1"/>
-    <mergeCell ref="CA1:CC1"/>
-    <mergeCell ref="CD1:CF1"/>
-    <mergeCell ref="CG1:CI1"/>
-    <mergeCell ref="CJ1:CL1"/>
-    <mergeCell ref="CM1:CO1"/>
-    <mergeCell ref="CP1:CR1"/>
-    <mergeCell ref="CS1:CU1"/>
-    <mergeCell ref="CY1:DA1"/>
-    <mergeCell ref="DB1:DB2"/>
-    <mergeCell ref="DC1:DC2"/>
-    <mergeCell ref="DD1:DD2"/>
-    <mergeCell ref="DE1:DE2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="DF1:DF2"/>
-    <mergeCell ref="DG1:DG2"/>
-    <mergeCell ref="DH1:DH2"/>
-    <mergeCell ref="DI1:DI2"/>
-    <mergeCell ref="DJ1:DJ2"/>
-    <mergeCell ref="L1:L2"/>
+  <mergeCells count="51">
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="DE1:DE2"/>
+    <mergeCell ref="DF1:DF2"/>
+    <mergeCell ref="DG1:DG2"/>
+    <mergeCell ref="DH1:DH2"/>
+    <mergeCell ref="DI1:DI2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="CX1:CZ1"/>
+    <mergeCell ref="DA1:DA2"/>
+    <mergeCell ref="DB1:DB2"/>
+    <mergeCell ref="DC1:DC2"/>
+    <mergeCell ref="DD1:DD2"/>
+    <mergeCell ref="CU1:CW1"/>
+    <mergeCell ref="BN1:BP1"/>
+    <mergeCell ref="BQ1:BS1"/>
+    <mergeCell ref="BT1:BV1"/>
+    <mergeCell ref="BW1:BY1"/>
+    <mergeCell ref="BZ1:CB1"/>
+    <mergeCell ref="CC1:CE1"/>
+    <mergeCell ref="CF1:CH1"/>
+    <mergeCell ref="CI1:CK1"/>
+    <mergeCell ref="CL1:CN1"/>
+    <mergeCell ref="CO1:CQ1"/>
+    <mergeCell ref="CR1:CT1"/>
+    <mergeCell ref="BK1:BM1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPPSApi/Doc/Template/FS0618_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0618_Export.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="53">
   <si>
     <t>包装工厂</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,10 +266,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DI2"/>
+  <dimension ref="A1:DH2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -594,240 +594,236 @@
     <col min="108" max="108" width="8.7265625" style="1"/>
     <col min="109" max="109" width="19.26953125" style="1" customWidth="1"/>
     <col min="110" max="110" width="11.6328125" style="1" customWidth="1"/>
-    <col min="111" max="111" width="11.26953125" style="1" customWidth="1"/>
-    <col min="112" max="112" width="18.26953125" style="1" customWidth="1"/>
-    <col min="113" max="113" width="15.08984375" style="1" customWidth="1"/>
+    <col min="111" max="111" width="18.26953125" style="1" customWidth="1"/>
+    <col min="112" max="112" width="15.08984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3" t="s">
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3" t="s">
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3" t="s">
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3" t="s">
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3" t="s">
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3" t="s">
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3" t="s">
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3" t="s">
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3" t="s">
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3" t="s">
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3" t="s">
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="3"/>
-      <c r="AY1" s="3" t="s">
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AZ1" s="3"/>
-      <c r="BA1" s="3"/>
-      <c r="BB1" s="3" t="s">
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="BC1" s="3"/>
-      <c r="BD1" s="3"/>
-      <c r="BE1" s="3" t="s">
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="BF1" s="3"/>
-      <c r="BG1" s="3"/>
-      <c r="BH1" s="3" t="s">
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="BI1" s="3"/>
-      <c r="BJ1" s="3"/>
-      <c r="BK1" s="3" t="s">
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="BL1" s="3"/>
-      <c r="BM1" s="3"/>
-      <c r="BN1" s="3" t="s">
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="BO1" s="3"/>
-      <c r="BP1" s="3"/>
-      <c r="BQ1" s="3" t="s">
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="BR1" s="3"/>
-      <c r="BS1" s="3"/>
-      <c r="BT1" s="3" t="s">
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="BU1" s="3"/>
-      <c r="BV1" s="3"/>
-      <c r="BW1" s="3" t="s">
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BX1" s="3"/>
-      <c r="BY1" s="3"/>
-      <c r="BZ1" s="3" t="s">
+      <c r="BX1" s="4"/>
+      <c r="BY1" s="4"/>
+      <c r="BZ1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CA1" s="3"/>
-      <c r="CB1" s="3"/>
-      <c r="CC1" s="3" t="s">
+      <c r="CA1" s="4"/>
+      <c r="CB1" s="4"/>
+      <c r="CC1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="CD1" s="3"/>
-      <c r="CE1" s="3"/>
-      <c r="CF1" s="3" t="s">
+      <c r="CD1" s="4"/>
+      <c r="CE1" s="4"/>
+      <c r="CF1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="CG1" s="3"/>
-      <c r="CH1" s="3"/>
-      <c r="CI1" s="3" t="s">
+      <c r="CG1" s="4"/>
+      <c r="CH1" s="4"/>
+      <c r="CI1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="CJ1" s="3"/>
-      <c r="CK1" s="3"/>
-      <c r="CL1" s="3" t="s">
+      <c r="CJ1" s="4"/>
+      <c r="CK1" s="4"/>
+      <c r="CL1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="CM1" s="3"/>
-      <c r="CN1" s="3"/>
-      <c r="CO1" s="3" t="s">
+      <c r="CM1" s="4"/>
+      <c r="CN1" s="4"/>
+      <c r="CO1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="CP1" s="3"/>
-      <c r="CQ1" s="3"/>
-      <c r="CR1" s="3" t="s">
+      <c r="CP1" s="4"/>
+      <c r="CQ1" s="4"/>
+      <c r="CR1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="CS1" s="3"/>
-      <c r="CT1" s="3"/>
-      <c r="CU1" s="3" t="s">
+      <c r="CS1" s="4"/>
+      <c r="CT1" s="4"/>
+      <c r="CU1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="CV1" s="3"/>
-      <c r="CW1" s="3"/>
-      <c r="CX1" s="3" t="s">
+      <c r="CV1" s="4"/>
+      <c r="CW1" s="4"/>
+      <c r="CX1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="CY1" s="3"/>
-      <c r="CZ1" s="3"/>
-      <c r="DA1" s="4" t="s">
+      <c r="CY1" s="4"/>
+      <c r="CZ1" s="4"/>
+      <c r="DA1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="DB1" s="4" t="s">
+      <c r="DB1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="DC1" s="4" t="s">
+      <c r="DC1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="DD1" s="4" t="s">
+      <c r="DD1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="DE1" s="4" t="s">
+      <c r="DE1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="DF1" s="4" t="s">
+      <c r="DF1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="DG1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="DH1" s="4" t="s">
+      <c r="DG1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="DI1" s="4" t="s">
+      <c r="DH1" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+    <row r="2" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
       <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1107,29 +1103,32 @@
       <c r="CZ2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="DA2" s="4"/>
-      <c r="DB2" s="4"/>
-      <c r="DC2" s="4"/>
-      <c r="DD2" s="4"/>
-      <c r="DE2" s="4"/>
-      <c r="DF2" s="4"/>
-      <c r="DG2" s="4"/>
-      <c r="DH2" s="4"/>
-      <c r="DI2" s="4"/>
+      <c r="DA2" s="3"/>
+      <c r="DB2" s="3"/>
+      <c r="DC2" s="3"/>
+      <c r="DD2" s="3"/>
+      <c r="DE2" s="3"/>
+      <c r="DF2" s="3"/>
+      <c r="DG2" s="3"/>
+      <c r="DH2" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="DE1:DE2"/>
-    <mergeCell ref="DF1:DF2"/>
-    <mergeCell ref="DG1:DG2"/>
+  <mergeCells count="50">
+    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
     <mergeCell ref="DH1:DH2"/>
-    <mergeCell ref="DI1:DI2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -1145,6 +1144,10 @@
     <mergeCell ref="BQ1:BS1"/>
     <mergeCell ref="BT1:BV1"/>
     <mergeCell ref="BW1:BY1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="DE1:DE2"/>
+    <mergeCell ref="DF1:DF2"/>
+    <mergeCell ref="DG1:DG2"/>
     <mergeCell ref="BZ1:CB1"/>
     <mergeCell ref="CC1:CE1"/>
     <mergeCell ref="CF1:CH1"/>
@@ -1156,20 +1159,11 @@
     <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPPSApi/Doc/Template/FS0618_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0618_Export.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -263,8 +263,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -575,27 +579,28 @@
   <dimension ref="A1:DH2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="1"/>
-    <col min="4" max="4" width="28" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="8.7265625" style="1"/>
-    <col min="8" max="8" width="11.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.6328125" style="1" customWidth="1"/>
-    <col min="11" max="104" width="8.7265625" style="1"/>
-    <col min="105" max="107" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="8.7265625" style="1"/>
-    <col min="109" max="109" width="19.26953125" style="1" customWidth="1"/>
-    <col min="110" max="110" width="11.6328125" style="1" customWidth="1"/>
-    <col min="111" max="111" width="18.26953125" style="1" customWidth="1"/>
-    <col min="112" max="112" width="15.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.90625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="2"/>
+    <col min="4" max="4" width="11.1796875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="2"/>
+    <col min="8" max="8" width="11.90625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7265625" style="2" customWidth="1"/>
+    <col min="11" max="104" width="8.7265625" style="2"/>
+    <col min="105" max="107" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="8.7265625" style="2"/>
+    <col min="109" max="109" width="19.26953125" style="2" customWidth="1"/>
+    <col min="110" max="110" width="11.6328125" style="2" customWidth="1"/>
+    <col min="111" max="111" width="18.26953125" style="2" customWidth="1"/>
+    <col min="112" max="112" width="15.08984375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:112" x14ac:dyDescent="0.25">
@@ -824,283 +829,283 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="BC2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="BE2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="BF2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="BG2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="BH2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="BI2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="BJ2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="BK2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="BL2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="BM2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="BN2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="BO2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="BP2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="BQ2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="BR2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="BS2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="BT2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="BU2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="BV2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="BW2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="BY2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="BZ2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="CA2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="CB2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="CC2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="CD2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="CE2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="CF2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="CG2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="CH2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="CI2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="CJ2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="CK2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="CL2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="CM2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="CN2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="CO2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="CP2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="CQ2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="CR2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="CS2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="CT2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="CU2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="CV2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="CW2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="CX2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="CY2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="CZ2" s="2" t="s">
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="CF2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="CI2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CM2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="CN2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="CO2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CP2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="CQ2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="CR2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CS2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="CT2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="CU2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CV2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="CW2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="CX2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CY2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="CZ2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="DA2" s="3"/>
@@ -1114,7 +1119,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="BE1:BG1"/>
     <mergeCell ref="BH1:BJ1"/>
     <mergeCell ref="AA1:AC1"/>
@@ -1159,6 +1163,7 @@
     <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>

--- a/SPPSApi/Doc/Template/FS0618_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0618_Export.xlsx
@@ -11,17 +11,13 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="53">
   <si>
-    <t>包装工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对象年月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,6 +193,10 @@
   </si>
   <si>
     <t>对象月识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装工场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -270,10 +270,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,7 +579,7 @@
   <dimension ref="A1:DH2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -604,534 +604,542 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:112" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4" t="s">
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="4"/>
-      <c r="AS1" s="4" t="s">
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4"/>
-      <c r="AV1" s="4" t="s">
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AW1" s="4"/>
-      <c r="AX1" s="4"/>
-      <c r="AY1" s="4" t="s">
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="4" t="s">
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="BC1" s="4"/>
-      <c r="BD1" s="4"/>
-      <c r="BE1" s="4" t="s">
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="BF1" s="4"/>
-      <c r="BG1" s="4"/>
-      <c r="BH1" s="4" t="s">
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="BI1" s="4"/>
-      <c r="BJ1" s="4"/>
-      <c r="BK1" s="4" t="s">
+      <c r="BL1" s="3"/>
+      <c r="BM1" s="3"/>
+      <c r="BN1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="BL1" s="4"/>
-      <c r="BM1" s="4"/>
-      <c r="BN1" s="4" t="s">
+      <c r="BO1" s="3"/>
+      <c r="BP1" s="3"/>
+      <c r="BQ1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="BO1" s="4"/>
-      <c r="BP1" s="4"/>
-      <c r="BQ1" s="4" t="s">
+      <c r="BR1" s="3"/>
+      <c r="BS1" s="3"/>
+      <c r="BT1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="BR1" s="4"/>
-      <c r="BS1" s="4"/>
-      <c r="BT1" s="4" t="s">
+      <c r="BU1" s="3"/>
+      <c r="BV1" s="3"/>
+      <c r="BW1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="BU1" s="4"/>
-      <c r="BV1" s="4"/>
-      <c r="BW1" s="4" t="s">
+      <c r="BX1" s="3"/>
+      <c r="BY1" s="3"/>
+      <c r="BZ1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="BX1" s="4"/>
-      <c r="BY1" s="4"/>
-      <c r="BZ1" s="4" t="s">
+      <c r="CA1" s="3"/>
+      <c r="CB1" s="3"/>
+      <c r="CC1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="CA1" s="4"/>
-      <c r="CB1" s="4"/>
-      <c r="CC1" s="4" t="s">
+      <c r="CD1" s="3"/>
+      <c r="CE1" s="3"/>
+      <c r="CF1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="CD1" s="4"/>
-      <c r="CE1" s="4"/>
-      <c r="CF1" s="4" t="s">
+      <c r="CG1" s="3"/>
+      <c r="CH1" s="3"/>
+      <c r="CI1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="CG1" s="4"/>
-      <c r="CH1" s="4"/>
-      <c r="CI1" s="4" t="s">
+      <c r="CJ1" s="3"/>
+      <c r="CK1" s="3"/>
+      <c r="CL1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="CJ1" s="4"/>
-      <c r="CK1" s="4"/>
-      <c r="CL1" s="4" t="s">
+      <c r="CM1" s="3"/>
+      <c r="CN1" s="3"/>
+      <c r="CO1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="CM1" s="4"/>
-      <c r="CN1" s="4"/>
-      <c r="CO1" s="4" t="s">
+      <c r="CP1" s="3"/>
+      <c r="CQ1" s="3"/>
+      <c r="CR1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="CP1" s="4"/>
-      <c r="CQ1" s="4"/>
-      <c r="CR1" s="4" t="s">
+      <c r="CS1" s="3"/>
+      <c r="CT1" s="3"/>
+      <c r="CU1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="CS1" s="4"/>
-      <c r="CT1" s="4"/>
-      <c r="CU1" s="4" t="s">
+      <c r="CV1" s="3"/>
+      <c r="CW1" s="3"/>
+      <c r="CX1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="CV1" s="4"/>
-      <c r="CW1" s="4"/>
-      <c r="CX1" s="4" t="s">
+      <c r="CY1" s="3"/>
+      <c r="CZ1" s="3"/>
+      <c r="DA1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="CY1" s="4"/>
-      <c r="CZ1" s="4"/>
-      <c r="DA1" s="3" t="s">
+      <c r="DB1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="DB1" s="3" t="s">
+      <c r="DC1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="DC1" s="3" t="s">
+      <c r="DD1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="DD1" s="3" t="s">
+      <c r="DE1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="DE1" s="3" t="s">
+      <c r="DF1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="DF1" s="3" t="s">
+      <c r="DG1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="DH1" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="DG1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="DH1" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:112" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
       <c r="L2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BK2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BM2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BO2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BS2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BU2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BW2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BX2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BY2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CA2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CB2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CC2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CD2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CE2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CF2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CG2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CI2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CJ2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CL2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CM2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CN2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CO2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CP2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CQ2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CS2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CU2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CV2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CW2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CX2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CY2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CZ2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="DA2" s="3"/>
-      <c r="DB2" s="3"/>
-      <c r="DC2" s="3"/>
-      <c r="DD2" s="3"/>
-      <c r="DE2" s="3"/>
-      <c r="DF2" s="3"/>
-      <c r="DG2" s="3"/>
-      <c r="DH2" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="DA2" s="4"/>
+      <c r="DB2" s="4"/>
+      <c r="DC2" s="4"/>
+      <c r="DD2" s="4"/>
+      <c r="DE2" s="4"/>
+      <c r="DF2" s="4"/>
+      <c r="DG2" s="4"/>
+      <c r="DH2" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="DE1:DE2"/>
+    <mergeCell ref="DF1:DF2"/>
+    <mergeCell ref="DG1:DG2"/>
+    <mergeCell ref="BZ1:CB1"/>
+    <mergeCell ref="CC1:CE1"/>
+    <mergeCell ref="CF1:CH1"/>
+    <mergeCell ref="CI1:CK1"/>
+    <mergeCell ref="CL1:CN1"/>
+    <mergeCell ref="CO1:CQ1"/>
+    <mergeCell ref="CR1:CT1"/>
+    <mergeCell ref="BK1:BM1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="DH1:DH2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -1148,27 +1156,19 @@
     <mergeCell ref="BQ1:BS1"/>
     <mergeCell ref="BT1:BV1"/>
     <mergeCell ref="BW1:BY1"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="DE1:DE2"/>
-    <mergeCell ref="DF1:DF2"/>
-    <mergeCell ref="DG1:DG2"/>
-    <mergeCell ref="BZ1:CB1"/>
-    <mergeCell ref="CC1:CE1"/>
-    <mergeCell ref="CF1:CH1"/>
-    <mergeCell ref="CI1:CK1"/>
-    <mergeCell ref="CL1:CN1"/>
-    <mergeCell ref="CO1:CQ1"/>
-    <mergeCell ref="CR1:CT1"/>
-    <mergeCell ref="BK1:BM1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="BB1:BD1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
